--- a/admin/pages/User-Based/datasets/training_user_based.xlsx
+++ b/admin/pages/User-Based/datasets/training_user_based.xlsx
@@ -374,7 +374,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C7548"/>
+  <dimension ref="A1:C7906"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -8617,7 +8617,7 @@
         <v>49</v>
       </c>
       <c r="C900" s="0">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="901" spans="1:3">
@@ -8628,7 +8628,7 @@
         <v>49</v>
       </c>
       <c r="C901" s="0">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="902" spans="1:3">
@@ -11965,7 +11965,9 @@
       <c r="B1269" s="0">
         <v>58</v>
       </c>
-      <c r="C1269" s="0"/>
+      <c r="C1269" s="0">
+        <v>184</v>
+      </c>
     </row>
     <row r="1270" spans="1:3">
       <c r="A1270" s="0">
@@ -12019,7 +12021,9 @@
       <c r="B1275" s="0">
         <v>64</v>
       </c>
-      <c r="C1275" s="0"/>
+      <c r="C1275" s="0">
+        <v>12</v>
+      </c>
     </row>
     <row r="1276" spans="1:3">
       <c r="A1276" s="0">
@@ -12122,7 +12126,9 @@
       <c r="B1286" s="0">
         <v>75</v>
       </c>
-      <c r="C1286" s="0"/>
+      <c r="C1286" s="0">
+        <v>74</v>
+      </c>
     </row>
     <row r="1287" spans="1:3">
       <c r="A1287" s="0">
@@ -12169,7 +12175,9 @@
       <c r="B1291" s="0">
         <v>80</v>
       </c>
-      <c r="C1291" s="0"/>
+      <c r="C1291" s="0">
+        <v>138</v>
+      </c>
     </row>
     <row r="1292" spans="1:3">
       <c r="A1292" s="0">
@@ -12692,7 +12700,9 @@
       <c r="B1348" s="0">
         <v>136</v>
       </c>
-      <c r="C1348" s="0"/>
+      <c r="C1348" s="0">
+        <v>22</v>
+      </c>
     </row>
     <row r="1349" spans="1:3">
       <c r="A1349" s="0">
@@ -12710,7 +12720,9 @@
       <c r="B1350" s="0">
         <v>138</v>
       </c>
-      <c r="C1350" s="0"/>
+      <c r="C1350" s="0">
+        <v>8</v>
+      </c>
     </row>
     <row r="1351" spans="1:3">
       <c r="A1351" s="0">
@@ -13494,7 +13506,9 @@
       <c r="B1436" s="0">
         <v>225</v>
       </c>
-      <c r="C1436" s="0"/>
+      <c r="C1436" s="0">
+        <v>72</v>
+      </c>
     </row>
     <row r="1437" spans="1:3">
       <c r="A1437" s="0">
@@ -32899,7 +32913,9 @@
       <c r="B3573" s="0">
         <v>207</v>
       </c>
-      <c r="C3573" s="0"/>
+      <c r="C3573" s="0">
+        <v>10</v>
+      </c>
     </row>
     <row r="3574" spans="1:3">
       <c r="A3574" s="0">
@@ -43126,7 +43142,7 @@
         <v>76</v>
       </c>
       <c r="C4701" s="0">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4702" spans="1:3">
@@ -43137,7 +43153,7 @@
         <v>76</v>
       </c>
       <c r="C4702" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4703" spans="1:3">
@@ -43148,7 +43164,7 @@
         <v>76</v>
       </c>
       <c r="C4703" s="0">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4704" spans="1:3">
@@ -46207,7 +46223,7 @@
         <v>51</v>
       </c>
       <c r="C5038" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5039" spans="1:3">
@@ -46218,7 +46234,7 @@
         <v>51</v>
       </c>
       <c r="C5039" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5040" spans="1:3">
@@ -49481,7 +49497,7 @@
         <v>50</v>
       </c>
       <c r="C5396" s="0">
-        <v>88</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5397" spans="1:3">
@@ -49492,7 +49508,7 @@
         <v>50</v>
       </c>
       <c r="C5397" s="0">
-        <v>4</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5398" spans="1:3">
@@ -49503,7 +49519,7 @@
         <v>50</v>
       </c>
       <c r="C5398" s="0">
-        <v>548</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5399" spans="1:3">
@@ -68959,6 +68975,3230 @@
         <v>228</v>
       </c>
       <c r="C7548" s="0"/>
+    </row>
+    <row r="7549" spans="1:3">
+      <c r="A7549" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7549" s="0">
+        <v>49</v>
+      </c>
+      <c r="C7549" s="0"/>
+    </row>
+    <row r="7550" spans="1:3">
+      <c r="A7550" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7550" s="0">
+        <v>50</v>
+      </c>
+      <c r="C7550" s="0"/>
+    </row>
+    <row r="7551" spans="1:3">
+      <c r="A7551" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7551" s="0">
+        <v>51</v>
+      </c>
+      <c r="C7551" s="0"/>
+    </row>
+    <row r="7552" spans="1:3">
+      <c r="A7552" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7552" s="0">
+        <v>52</v>
+      </c>
+      <c r="C7552" s="0"/>
+    </row>
+    <row r="7553" spans="1:3">
+      <c r="A7553" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7553" s="0">
+        <v>53</v>
+      </c>
+      <c r="C7553" s="0"/>
+    </row>
+    <row r="7554" spans="1:3">
+      <c r="A7554" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7554" s="0">
+        <v>54</v>
+      </c>
+      <c r="C7554" s="0"/>
+    </row>
+    <row r="7555" spans="1:3">
+      <c r="A7555" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7555" s="0">
+        <v>55</v>
+      </c>
+      <c r="C7555" s="0"/>
+    </row>
+    <row r="7556" spans="1:3">
+      <c r="A7556" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7556" s="0">
+        <v>56</v>
+      </c>
+      <c r="C7556" s="0"/>
+    </row>
+    <row r="7557" spans="1:3">
+      <c r="A7557" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7557" s="0">
+        <v>57</v>
+      </c>
+      <c r="C7557" s="0"/>
+    </row>
+    <row r="7558" spans="1:3">
+      <c r="A7558" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7558" s="0">
+        <v>58</v>
+      </c>
+      <c r="C7558" s="0"/>
+    </row>
+    <row r="7559" spans="1:3">
+      <c r="A7559" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7559" s="0">
+        <v>59</v>
+      </c>
+      <c r="C7559" s="0"/>
+    </row>
+    <row r="7560" spans="1:3">
+      <c r="A7560" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7560" s="0">
+        <v>60</v>
+      </c>
+      <c r="C7560" s="0"/>
+    </row>
+    <row r="7561" spans="1:3">
+      <c r="A7561" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7561" s="0">
+        <v>61</v>
+      </c>
+      <c r="C7561" s="0"/>
+    </row>
+    <row r="7562" spans="1:3">
+      <c r="A7562" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7562" s="0">
+        <v>62</v>
+      </c>
+      <c r="C7562" s="0"/>
+    </row>
+    <row r="7563" spans="1:3">
+      <c r="A7563" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7563" s="0">
+        <v>63</v>
+      </c>
+      <c r="C7563" s="0"/>
+    </row>
+    <row r="7564" spans="1:3">
+      <c r="A7564" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7564" s="0">
+        <v>64</v>
+      </c>
+      <c r="C7564" s="0"/>
+    </row>
+    <row r="7565" spans="1:3">
+      <c r="A7565" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7565" s="0">
+        <v>65</v>
+      </c>
+      <c r="C7565" s="0"/>
+    </row>
+    <row r="7566" spans="1:3">
+      <c r="A7566" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7566" s="0">
+        <v>66</v>
+      </c>
+      <c r="C7566" s="0"/>
+    </row>
+    <row r="7567" spans="1:3">
+      <c r="A7567" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7567" s="0">
+        <v>67</v>
+      </c>
+      <c r="C7567" s="0"/>
+    </row>
+    <row r="7568" spans="1:3">
+      <c r="A7568" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7568" s="0">
+        <v>68</v>
+      </c>
+      <c r="C7568" s="0"/>
+    </row>
+    <row r="7569" spans="1:3">
+      <c r="A7569" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7569" s="0">
+        <v>69</v>
+      </c>
+      <c r="C7569" s="0"/>
+    </row>
+    <row r="7570" spans="1:3">
+      <c r="A7570" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7570" s="0">
+        <v>70</v>
+      </c>
+      <c r="C7570" s="0"/>
+    </row>
+    <row r="7571" spans="1:3">
+      <c r="A7571" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7571" s="0">
+        <v>71</v>
+      </c>
+      <c r="C7571" s="0"/>
+    </row>
+    <row r="7572" spans="1:3">
+      <c r="A7572" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7572" s="0">
+        <v>72</v>
+      </c>
+      <c r="C7572" s="0"/>
+    </row>
+    <row r="7573" spans="1:3">
+      <c r="A7573" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7573" s="0">
+        <v>73</v>
+      </c>
+      <c r="C7573" s="0"/>
+    </row>
+    <row r="7574" spans="1:3">
+      <c r="A7574" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7574" s="0">
+        <v>74</v>
+      </c>
+      <c r="C7574" s="0"/>
+    </row>
+    <row r="7575" spans="1:3">
+      <c r="A7575" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7575" s="0">
+        <v>75</v>
+      </c>
+      <c r="C7575" s="0"/>
+    </row>
+    <row r="7576" spans="1:3">
+      <c r="A7576" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7576" s="0">
+        <v>76</v>
+      </c>
+      <c r="C7576" s="0"/>
+    </row>
+    <row r="7577" spans="1:3">
+      <c r="A7577" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7577" s="0">
+        <v>77</v>
+      </c>
+      <c r="C7577" s="0"/>
+    </row>
+    <row r="7578" spans="1:3">
+      <c r="A7578" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7578" s="0">
+        <v>78</v>
+      </c>
+      <c r="C7578" s="0"/>
+    </row>
+    <row r="7579" spans="1:3">
+      <c r="A7579" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7579" s="0">
+        <v>79</v>
+      </c>
+      <c r="C7579" s="0"/>
+    </row>
+    <row r="7580" spans="1:3">
+      <c r="A7580" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7580" s="0">
+        <v>80</v>
+      </c>
+      <c r="C7580" s="0"/>
+    </row>
+    <row r="7581" spans="1:3">
+      <c r="A7581" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7581" s="0">
+        <v>81</v>
+      </c>
+      <c r="C7581" s="0"/>
+    </row>
+    <row r="7582" spans="1:3">
+      <c r="A7582" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7582" s="0">
+        <v>82</v>
+      </c>
+      <c r="C7582" s="0"/>
+    </row>
+    <row r="7583" spans="1:3">
+      <c r="A7583" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7583" s="0">
+        <v>83</v>
+      </c>
+      <c r="C7583" s="0"/>
+    </row>
+    <row r="7584" spans="1:3">
+      <c r="A7584" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7584" s="0">
+        <v>84</v>
+      </c>
+      <c r="C7584" s="0"/>
+    </row>
+    <row r="7585" spans="1:3">
+      <c r="A7585" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7585" s="0">
+        <v>85</v>
+      </c>
+      <c r="C7585" s="0"/>
+    </row>
+    <row r="7586" spans="1:3">
+      <c r="A7586" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7586" s="0">
+        <v>86</v>
+      </c>
+      <c r="C7586" s="0"/>
+    </row>
+    <row r="7587" spans="1:3">
+      <c r="A7587" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7587" s="0">
+        <v>87</v>
+      </c>
+      <c r="C7587" s="0"/>
+    </row>
+    <row r="7588" spans="1:3">
+      <c r="A7588" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7588" s="0">
+        <v>88</v>
+      </c>
+      <c r="C7588" s="0"/>
+    </row>
+    <row r="7589" spans="1:3">
+      <c r="A7589" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7589" s="0">
+        <v>89</v>
+      </c>
+      <c r="C7589" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7590" spans="1:3">
+      <c r="A7590" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7590" s="0">
+        <v>90</v>
+      </c>
+      <c r="C7590" s="0"/>
+    </row>
+    <row r="7591" spans="1:3">
+      <c r="A7591" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7591" s="0">
+        <v>91</v>
+      </c>
+      <c r="C7591" s="0"/>
+    </row>
+    <row r="7592" spans="1:3">
+      <c r="A7592" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7592" s="0">
+        <v>92</v>
+      </c>
+      <c r="C7592" s="0"/>
+    </row>
+    <row r="7593" spans="1:3">
+      <c r="A7593" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7593" s="0">
+        <v>93</v>
+      </c>
+      <c r="C7593" s="0"/>
+    </row>
+    <row r="7594" spans="1:3">
+      <c r="A7594" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7594" s="0">
+        <v>94</v>
+      </c>
+      <c r="C7594" s="0"/>
+    </row>
+    <row r="7595" spans="1:3">
+      <c r="A7595" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7595" s="0">
+        <v>95</v>
+      </c>
+      <c r="C7595" s="0"/>
+    </row>
+    <row r="7596" spans="1:3">
+      <c r="A7596" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7596" s="0">
+        <v>96</v>
+      </c>
+      <c r="C7596" s="0"/>
+    </row>
+    <row r="7597" spans="1:3">
+      <c r="A7597" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7597" s="0">
+        <v>97</v>
+      </c>
+      <c r="C7597" s="0"/>
+    </row>
+    <row r="7598" spans="1:3">
+      <c r="A7598" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7598" s="0">
+        <v>98</v>
+      </c>
+      <c r="C7598" s="0"/>
+    </row>
+    <row r="7599" spans="1:3">
+      <c r="A7599" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7599" s="0">
+        <v>99</v>
+      </c>
+      <c r="C7599" s="0"/>
+    </row>
+    <row r="7600" spans="1:3">
+      <c r="A7600" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7600" s="0">
+        <v>100</v>
+      </c>
+      <c r="C7600" s="0"/>
+    </row>
+    <row r="7601" spans="1:3">
+      <c r="A7601" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7601" s="0">
+        <v>101</v>
+      </c>
+      <c r="C7601" s="0"/>
+    </row>
+    <row r="7602" spans="1:3">
+      <c r="A7602" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7602" s="0">
+        <v>102</v>
+      </c>
+      <c r="C7602" s="0"/>
+    </row>
+    <row r="7603" spans="1:3">
+      <c r="A7603" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7603" s="0">
+        <v>103</v>
+      </c>
+      <c r="C7603" s="0"/>
+    </row>
+    <row r="7604" spans="1:3">
+      <c r="A7604" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7604" s="0">
+        <v>104</v>
+      </c>
+      <c r="C7604" s="0"/>
+    </row>
+    <row r="7605" spans="1:3">
+      <c r="A7605" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7605" s="0">
+        <v>105</v>
+      </c>
+      <c r="C7605" s="0"/>
+    </row>
+    <row r="7606" spans="1:3">
+      <c r="A7606" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7606" s="0">
+        <v>106</v>
+      </c>
+      <c r="C7606" s="0"/>
+    </row>
+    <row r="7607" spans="1:3">
+      <c r="A7607" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7607" s="0">
+        <v>107</v>
+      </c>
+      <c r="C7607" s="0"/>
+    </row>
+    <row r="7608" spans="1:3">
+      <c r="A7608" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7608" s="0">
+        <v>108</v>
+      </c>
+      <c r="C7608" s="0"/>
+    </row>
+    <row r="7609" spans="1:3">
+      <c r="A7609" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7609" s="0">
+        <v>109</v>
+      </c>
+      <c r="C7609" s="0"/>
+    </row>
+    <row r="7610" spans="1:3">
+      <c r="A7610" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7610" s="0">
+        <v>110</v>
+      </c>
+      <c r="C7610" s="0"/>
+    </row>
+    <row r="7611" spans="1:3">
+      <c r="A7611" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7611" s="0">
+        <v>111</v>
+      </c>
+      <c r="C7611" s="0"/>
+    </row>
+    <row r="7612" spans="1:3">
+      <c r="A7612" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7612" s="0">
+        <v>112</v>
+      </c>
+      <c r="C7612" s="0"/>
+    </row>
+    <row r="7613" spans="1:3">
+      <c r="A7613" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7613" s="0">
+        <v>113</v>
+      </c>
+      <c r="C7613" s="0"/>
+    </row>
+    <row r="7614" spans="1:3">
+      <c r="A7614" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7614" s="0">
+        <v>114</v>
+      </c>
+      <c r="C7614" s="0"/>
+    </row>
+    <row r="7615" spans="1:3">
+      <c r="A7615" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7615" s="0">
+        <v>115</v>
+      </c>
+      <c r="C7615" s="0"/>
+    </row>
+    <row r="7616" spans="1:3">
+      <c r="A7616" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7616" s="0">
+        <v>116</v>
+      </c>
+      <c r="C7616" s="0"/>
+    </row>
+    <row r="7617" spans="1:3">
+      <c r="A7617" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7617" s="0">
+        <v>117</v>
+      </c>
+      <c r="C7617" s="0"/>
+    </row>
+    <row r="7618" spans="1:3">
+      <c r="A7618" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7618" s="0">
+        <v>118</v>
+      </c>
+      <c r="C7618" s="0"/>
+    </row>
+    <row r="7619" spans="1:3">
+      <c r="A7619" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7619" s="0">
+        <v>119</v>
+      </c>
+      <c r="C7619" s="0"/>
+    </row>
+    <row r="7620" spans="1:3">
+      <c r="A7620" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7620" s="0">
+        <v>120</v>
+      </c>
+      <c r="C7620" s="0"/>
+    </row>
+    <row r="7621" spans="1:3">
+      <c r="A7621" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7621" s="0">
+        <v>121</v>
+      </c>
+      <c r="C7621" s="0"/>
+    </row>
+    <row r="7622" spans="1:3">
+      <c r="A7622" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7622" s="0">
+        <v>122</v>
+      </c>
+      <c r="C7622" s="0"/>
+    </row>
+    <row r="7623" spans="1:3">
+      <c r="A7623" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7623" s="0">
+        <v>123</v>
+      </c>
+      <c r="C7623" s="0"/>
+    </row>
+    <row r="7624" spans="1:3">
+      <c r="A7624" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7624" s="0">
+        <v>124</v>
+      </c>
+      <c r="C7624" s="0"/>
+    </row>
+    <row r="7625" spans="1:3">
+      <c r="A7625" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7625" s="0">
+        <v>125</v>
+      </c>
+      <c r="C7625" s="0"/>
+    </row>
+    <row r="7626" spans="1:3">
+      <c r="A7626" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7626" s="0">
+        <v>126</v>
+      </c>
+      <c r="C7626" s="0"/>
+    </row>
+    <row r="7627" spans="1:3">
+      <c r="A7627" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7627" s="0">
+        <v>127</v>
+      </c>
+      <c r="C7627" s="0"/>
+    </row>
+    <row r="7628" spans="1:3">
+      <c r="A7628" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7628" s="0">
+        <v>128</v>
+      </c>
+      <c r="C7628" s="0"/>
+    </row>
+    <row r="7629" spans="1:3">
+      <c r="A7629" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7629" s="0">
+        <v>129</v>
+      </c>
+      <c r="C7629" s="0"/>
+    </row>
+    <row r="7630" spans="1:3">
+      <c r="A7630" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7630" s="0">
+        <v>130</v>
+      </c>
+      <c r="C7630" s="0"/>
+    </row>
+    <row r="7631" spans="1:3">
+      <c r="A7631" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7631" s="0">
+        <v>131</v>
+      </c>
+      <c r="C7631" s="0"/>
+    </row>
+    <row r="7632" spans="1:3">
+      <c r="A7632" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7632" s="0">
+        <v>132</v>
+      </c>
+      <c r="C7632" s="0"/>
+    </row>
+    <row r="7633" spans="1:3">
+      <c r="A7633" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7633" s="0">
+        <v>133</v>
+      </c>
+      <c r="C7633" s="0"/>
+    </row>
+    <row r="7634" spans="1:3">
+      <c r="A7634" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7634" s="0">
+        <v>134</v>
+      </c>
+      <c r="C7634" s="0"/>
+    </row>
+    <row r="7635" spans="1:3">
+      <c r="A7635" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7635" s="0">
+        <v>135</v>
+      </c>
+      <c r="C7635" s="0"/>
+    </row>
+    <row r="7636" spans="1:3">
+      <c r="A7636" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7636" s="0">
+        <v>136</v>
+      </c>
+      <c r="C7636" s="0"/>
+    </row>
+    <row r="7637" spans="1:3">
+      <c r="A7637" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7637" s="0">
+        <v>137</v>
+      </c>
+      <c r="C7637" s="0"/>
+    </row>
+    <row r="7638" spans="1:3">
+      <c r="A7638" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7638" s="0">
+        <v>138</v>
+      </c>
+      <c r="C7638" s="0"/>
+    </row>
+    <row r="7639" spans="1:3">
+      <c r="A7639" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7639" s="0">
+        <v>139</v>
+      </c>
+      <c r="C7639" s="0"/>
+    </row>
+    <row r="7640" spans="1:3">
+      <c r="A7640" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7640" s="0">
+        <v>140</v>
+      </c>
+      <c r="C7640" s="0"/>
+    </row>
+    <row r="7641" spans="1:3">
+      <c r="A7641" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7641" s="0">
+        <v>141</v>
+      </c>
+      <c r="C7641" s="0"/>
+    </row>
+    <row r="7642" spans="1:3">
+      <c r="A7642" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7642" s="0">
+        <v>142</v>
+      </c>
+      <c r="C7642" s="0"/>
+    </row>
+    <row r="7643" spans="1:3">
+      <c r="A7643" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7643" s="0">
+        <v>143</v>
+      </c>
+      <c r="C7643" s="0"/>
+    </row>
+    <row r="7644" spans="1:3">
+      <c r="A7644" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7644" s="0">
+        <v>144</v>
+      </c>
+      <c r="C7644" s="0"/>
+    </row>
+    <row r="7645" spans="1:3">
+      <c r="A7645" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7645" s="0">
+        <v>145</v>
+      </c>
+      <c r="C7645" s="0"/>
+    </row>
+    <row r="7646" spans="1:3">
+      <c r="A7646" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7646" s="0">
+        <v>146</v>
+      </c>
+      <c r="C7646" s="0"/>
+    </row>
+    <row r="7647" spans="1:3">
+      <c r="A7647" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7647" s="0">
+        <v>147</v>
+      </c>
+      <c r="C7647" s="0"/>
+    </row>
+    <row r="7648" spans="1:3">
+      <c r="A7648" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7648" s="0">
+        <v>149</v>
+      </c>
+      <c r="C7648" s="0"/>
+    </row>
+    <row r="7649" spans="1:3">
+      <c r="A7649" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7649" s="0">
+        <v>150</v>
+      </c>
+      <c r="C7649" s="0"/>
+    </row>
+    <row r="7650" spans="1:3">
+      <c r="A7650" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7650" s="0">
+        <v>151</v>
+      </c>
+      <c r="C7650" s="0"/>
+    </row>
+    <row r="7651" spans="1:3">
+      <c r="A7651" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7651" s="0">
+        <v>152</v>
+      </c>
+      <c r="C7651" s="0"/>
+    </row>
+    <row r="7652" spans="1:3">
+      <c r="A7652" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7652" s="0">
+        <v>153</v>
+      </c>
+      <c r="C7652" s="0"/>
+    </row>
+    <row r="7653" spans="1:3">
+      <c r="A7653" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7653" s="0">
+        <v>154</v>
+      </c>
+      <c r="C7653" s="0"/>
+    </row>
+    <row r="7654" spans="1:3">
+      <c r="A7654" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7654" s="0">
+        <v>155</v>
+      </c>
+      <c r="C7654" s="0"/>
+    </row>
+    <row r="7655" spans="1:3">
+      <c r="A7655" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7655" s="0">
+        <v>156</v>
+      </c>
+      <c r="C7655" s="0"/>
+    </row>
+    <row r="7656" spans="1:3">
+      <c r="A7656" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7656" s="0">
+        <v>157</v>
+      </c>
+      <c r="C7656" s="0"/>
+    </row>
+    <row r="7657" spans="1:3">
+      <c r="A7657" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7657" s="0">
+        <v>158</v>
+      </c>
+      <c r="C7657" s="0"/>
+    </row>
+    <row r="7658" spans="1:3">
+      <c r="A7658" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7658" s="0">
+        <v>159</v>
+      </c>
+      <c r="C7658" s="0"/>
+    </row>
+    <row r="7659" spans="1:3">
+      <c r="A7659" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7659" s="0">
+        <v>160</v>
+      </c>
+      <c r="C7659" s="0"/>
+    </row>
+    <row r="7660" spans="1:3">
+      <c r="A7660" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7660" s="0">
+        <v>161</v>
+      </c>
+      <c r="C7660" s="0"/>
+    </row>
+    <row r="7661" spans="1:3">
+      <c r="A7661" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7661" s="0">
+        <v>162</v>
+      </c>
+      <c r="C7661" s="0"/>
+    </row>
+    <row r="7662" spans="1:3">
+      <c r="A7662" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7662" s="0">
+        <v>163</v>
+      </c>
+      <c r="C7662" s="0"/>
+    </row>
+    <row r="7663" spans="1:3">
+      <c r="A7663" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7663" s="0">
+        <v>164</v>
+      </c>
+      <c r="C7663" s="0"/>
+    </row>
+    <row r="7664" spans="1:3">
+      <c r="A7664" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7664" s="0">
+        <v>165</v>
+      </c>
+      <c r="C7664" s="0"/>
+    </row>
+    <row r="7665" spans="1:3">
+      <c r="A7665" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7665" s="0">
+        <v>166</v>
+      </c>
+      <c r="C7665" s="0"/>
+    </row>
+    <row r="7666" spans="1:3">
+      <c r="A7666" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7666" s="0">
+        <v>167</v>
+      </c>
+      <c r="C7666" s="0"/>
+    </row>
+    <row r="7667" spans="1:3">
+      <c r="A7667" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7667" s="0">
+        <v>168</v>
+      </c>
+      <c r="C7667" s="0"/>
+    </row>
+    <row r="7668" spans="1:3">
+      <c r="A7668" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7668" s="0">
+        <v>169</v>
+      </c>
+      <c r="C7668" s="0"/>
+    </row>
+    <row r="7669" spans="1:3">
+      <c r="A7669" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7669" s="0">
+        <v>170</v>
+      </c>
+      <c r="C7669" s="0"/>
+    </row>
+    <row r="7670" spans="1:3">
+      <c r="A7670" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7670" s="0">
+        <v>171</v>
+      </c>
+      <c r="C7670" s="0"/>
+    </row>
+    <row r="7671" spans="1:3">
+      <c r="A7671" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7671" s="0">
+        <v>172</v>
+      </c>
+      <c r="C7671" s="0"/>
+    </row>
+    <row r="7672" spans="1:3">
+      <c r="A7672" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7672" s="0">
+        <v>173</v>
+      </c>
+      <c r="C7672" s="0"/>
+    </row>
+    <row r="7673" spans="1:3">
+      <c r="A7673" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7673" s="0">
+        <v>174</v>
+      </c>
+      <c r="C7673" s="0"/>
+    </row>
+    <row r="7674" spans="1:3">
+      <c r="A7674" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7674" s="0">
+        <v>175</v>
+      </c>
+      <c r="C7674" s="0"/>
+    </row>
+    <row r="7675" spans="1:3">
+      <c r="A7675" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7675" s="0">
+        <v>176</v>
+      </c>
+      <c r="C7675" s="0"/>
+    </row>
+    <row r="7676" spans="1:3">
+      <c r="A7676" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7676" s="0">
+        <v>177</v>
+      </c>
+      <c r="C7676" s="0"/>
+    </row>
+    <row r="7677" spans="1:3">
+      <c r="A7677" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7677" s="0">
+        <v>178</v>
+      </c>
+      <c r="C7677" s="0"/>
+    </row>
+    <row r="7678" spans="1:3">
+      <c r="A7678" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7678" s="0">
+        <v>179</v>
+      </c>
+      <c r="C7678" s="0"/>
+    </row>
+    <row r="7679" spans="1:3">
+      <c r="A7679" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7679" s="0">
+        <v>180</v>
+      </c>
+      <c r="C7679" s="0"/>
+    </row>
+    <row r="7680" spans="1:3">
+      <c r="A7680" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7680" s="0">
+        <v>181</v>
+      </c>
+      <c r="C7680" s="0"/>
+    </row>
+    <row r="7681" spans="1:3">
+      <c r="A7681" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7681" s="0">
+        <v>182</v>
+      </c>
+      <c r="C7681" s="0"/>
+    </row>
+    <row r="7682" spans="1:3">
+      <c r="A7682" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7682" s="0">
+        <v>183</v>
+      </c>
+      <c r="C7682" s="0"/>
+    </row>
+    <row r="7683" spans="1:3">
+      <c r="A7683" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7683" s="0">
+        <v>184</v>
+      </c>
+      <c r="C7683" s="0"/>
+    </row>
+    <row r="7684" spans="1:3">
+      <c r="A7684" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7684" s="0">
+        <v>185</v>
+      </c>
+      <c r="C7684" s="0"/>
+    </row>
+    <row r="7685" spans="1:3">
+      <c r="A7685" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7685" s="0">
+        <v>186</v>
+      </c>
+      <c r="C7685" s="0"/>
+    </row>
+    <row r="7686" spans="1:3">
+      <c r="A7686" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7686" s="0">
+        <v>187</v>
+      </c>
+      <c r="C7686" s="0"/>
+    </row>
+    <row r="7687" spans="1:3">
+      <c r="A7687" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7687" s="0">
+        <v>188</v>
+      </c>
+      <c r="C7687" s="0"/>
+    </row>
+    <row r="7688" spans="1:3">
+      <c r="A7688" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7688" s="0">
+        <v>189</v>
+      </c>
+      <c r="C7688" s="0"/>
+    </row>
+    <row r="7689" spans="1:3">
+      <c r="A7689" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7689" s="0">
+        <v>190</v>
+      </c>
+      <c r="C7689" s="0"/>
+    </row>
+    <row r="7690" spans="1:3">
+      <c r="A7690" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7690" s="0">
+        <v>191</v>
+      </c>
+      <c r="C7690" s="0"/>
+    </row>
+    <row r="7691" spans="1:3">
+      <c r="A7691" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7691" s="0">
+        <v>192</v>
+      </c>
+      <c r="C7691" s="0"/>
+    </row>
+    <row r="7692" spans="1:3">
+      <c r="A7692" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7692" s="0">
+        <v>193</v>
+      </c>
+      <c r="C7692" s="0"/>
+    </row>
+    <row r="7693" spans="1:3">
+      <c r="A7693" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7693" s="0">
+        <v>194</v>
+      </c>
+      <c r="C7693" s="0"/>
+    </row>
+    <row r="7694" spans="1:3">
+      <c r="A7694" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7694" s="0">
+        <v>195</v>
+      </c>
+      <c r="C7694" s="0"/>
+    </row>
+    <row r="7695" spans="1:3">
+      <c r="A7695" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7695" s="0">
+        <v>196</v>
+      </c>
+      <c r="C7695" s="0"/>
+    </row>
+    <row r="7696" spans="1:3">
+      <c r="A7696" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7696" s="0">
+        <v>197</v>
+      </c>
+      <c r="C7696" s="0"/>
+    </row>
+    <row r="7697" spans="1:3">
+      <c r="A7697" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7697" s="0">
+        <v>198</v>
+      </c>
+      <c r="C7697" s="0"/>
+    </row>
+    <row r="7698" spans="1:3">
+      <c r="A7698" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7698" s="0">
+        <v>199</v>
+      </c>
+      <c r="C7698" s="0"/>
+    </row>
+    <row r="7699" spans="1:3">
+      <c r="A7699" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7699" s="0">
+        <v>200</v>
+      </c>
+      <c r="C7699" s="0"/>
+    </row>
+    <row r="7700" spans="1:3">
+      <c r="A7700" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7700" s="0">
+        <v>201</v>
+      </c>
+      <c r="C7700" s="0"/>
+    </row>
+    <row r="7701" spans="1:3">
+      <c r="A7701" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7701" s="0">
+        <v>202</v>
+      </c>
+      <c r="C7701" s="0"/>
+    </row>
+    <row r="7702" spans="1:3">
+      <c r="A7702" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7702" s="0">
+        <v>203</v>
+      </c>
+      <c r="C7702" s="0"/>
+    </row>
+    <row r="7703" spans="1:3">
+      <c r="A7703" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7703" s="0">
+        <v>204</v>
+      </c>
+      <c r="C7703" s="0"/>
+    </row>
+    <row r="7704" spans="1:3">
+      <c r="A7704" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7704" s="0">
+        <v>205</v>
+      </c>
+      <c r="C7704" s="0"/>
+    </row>
+    <row r="7705" spans="1:3">
+      <c r="A7705" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7705" s="0">
+        <v>206</v>
+      </c>
+      <c r="C7705" s="0"/>
+    </row>
+    <row r="7706" spans="1:3">
+      <c r="A7706" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7706" s="0">
+        <v>207</v>
+      </c>
+      <c r="C7706" s="0"/>
+    </row>
+    <row r="7707" spans="1:3">
+      <c r="A7707" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7707" s="0">
+        <v>208</v>
+      </c>
+      <c r="C7707" s="0"/>
+    </row>
+    <row r="7708" spans="1:3">
+      <c r="A7708" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7708" s="0">
+        <v>209</v>
+      </c>
+      <c r="C7708" s="0"/>
+    </row>
+    <row r="7709" spans="1:3">
+      <c r="A7709" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7709" s="0">
+        <v>210</v>
+      </c>
+      <c r="C7709" s="0"/>
+    </row>
+    <row r="7710" spans="1:3">
+      <c r="A7710" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7710" s="0">
+        <v>211</v>
+      </c>
+      <c r="C7710" s="0"/>
+    </row>
+    <row r="7711" spans="1:3">
+      <c r="A7711" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7711" s="0">
+        <v>212</v>
+      </c>
+      <c r="C7711" s="0"/>
+    </row>
+    <row r="7712" spans="1:3">
+      <c r="A7712" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7712" s="0">
+        <v>213</v>
+      </c>
+      <c r="C7712" s="0"/>
+    </row>
+    <row r="7713" spans="1:3">
+      <c r="A7713" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7713" s="0">
+        <v>214</v>
+      </c>
+      <c r="C7713" s="0"/>
+    </row>
+    <row r="7714" spans="1:3">
+      <c r="A7714" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7714" s="0">
+        <v>215</v>
+      </c>
+      <c r="C7714" s="0"/>
+    </row>
+    <row r="7715" spans="1:3">
+      <c r="A7715" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7715" s="0">
+        <v>216</v>
+      </c>
+      <c r="C7715" s="0"/>
+    </row>
+    <row r="7716" spans="1:3">
+      <c r="A7716" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7716" s="0">
+        <v>217</v>
+      </c>
+      <c r="C7716" s="0"/>
+    </row>
+    <row r="7717" spans="1:3">
+      <c r="A7717" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7717" s="0">
+        <v>218</v>
+      </c>
+      <c r="C7717" s="0"/>
+    </row>
+    <row r="7718" spans="1:3">
+      <c r="A7718" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7718" s="0">
+        <v>219</v>
+      </c>
+      <c r="C7718" s="0"/>
+    </row>
+    <row r="7719" spans="1:3">
+      <c r="A7719" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7719" s="0">
+        <v>220</v>
+      </c>
+      <c r="C7719" s="0"/>
+    </row>
+    <row r="7720" spans="1:3">
+      <c r="A7720" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7720" s="0">
+        <v>221</v>
+      </c>
+      <c r="C7720" s="0"/>
+    </row>
+    <row r="7721" spans="1:3">
+      <c r="A7721" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7721" s="0">
+        <v>222</v>
+      </c>
+      <c r="C7721" s="0"/>
+    </row>
+    <row r="7722" spans="1:3">
+      <c r="A7722" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7722" s="0">
+        <v>223</v>
+      </c>
+      <c r="C7722" s="0"/>
+    </row>
+    <row r="7723" spans="1:3">
+      <c r="A7723" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7723" s="0">
+        <v>224</v>
+      </c>
+      <c r="C7723" s="0"/>
+    </row>
+    <row r="7724" spans="1:3">
+      <c r="A7724" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7724" s="0">
+        <v>225</v>
+      </c>
+      <c r="C7724" s="0"/>
+    </row>
+    <row r="7725" spans="1:3">
+      <c r="A7725" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7725" s="0">
+        <v>226</v>
+      </c>
+      <c r="C7725" s="0"/>
+    </row>
+    <row r="7726" spans="1:3">
+      <c r="A7726" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7726" s="0">
+        <v>227</v>
+      </c>
+      <c r="C7726" s="0"/>
+    </row>
+    <row r="7727" spans="1:3">
+      <c r="A7727" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7727" s="0">
+        <v>228</v>
+      </c>
+      <c r="C7727" s="0"/>
+    </row>
+    <row r="7728" spans="1:3">
+      <c r="A7728" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7728" s="0">
+        <v>49</v>
+      </c>
+      <c r="C7728" s="0"/>
+    </row>
+    <row r="7729" spans="1:3">
+      <c r="A7729" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7729" s="0">
+        <v>50</v>
+      </c>
+      <c r="C7729" s="0"/>
+    </row>
+    <row r="7730" spans="1:3">
+      <c r="A7730" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7730" s="0">
+        <v>51</v>
+      </c>
+      <c r="C7730" s="0"/>
+    </row>
+    <row r="7731" spans="1:3">
+      <c r="A7731" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7731" s="0">
+        <v>52</v>
+      </c>
+      <c r="C7731" s="0"/>
+    </row>
+    <row r="7732" spans="1:3">
+      <c r="A7732" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7732" s="0">
+        <v>53</v>
+      </c>
+      <c r="C7732" s="0"/>
+    </row>
+    <row r="7733" spans="1:3">
+      <c r="A7733" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7733" s="0">
+        <v>54</v>
+      </c>
+      <c r="C7733" s="0"/>
+    </row>
+    <row r="7734" spans="1:3">
+      <c r="A7734" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7734" s="0">
+        <v>55</v>
+      </c>
+      <c r="C7734" s="0"/>
+    </row>
+    <row r="7735" spans="1:3">
+      <c r="A7735" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7735" s="0">
+        <v>56</v>
+      </c>
+      <c r="C7735" s="0"/>
+    </row>
+    <row r="7736" spans="1:3">
+      <c r="A7736" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7736" s="0">
+        <v>57</v>
+      </c>
+      <c r="C7736" s="0"/>
+    </row>
+    <row r="7737" spans="1:3">
+      <c r="A7737" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7737" s="0">
+        <v>58</v>
+      </c>
+      <c r="C7737" s="0"/>
+    </row>
+    <row r="7738" spans="1:3">
+      <c r="A7738" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7738" s="0">
+        <v>59</v>
+      </c>
+      <c r="C7738" s="0"/>
+    </row>
+    <row r="7739" spans="1:3">
+      <c r="A7739" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7739" s="0">
+        <v>60</v>
+      </c>
+      <c r="C7739" s="0"/>
+    </row>
+    <row r="7740" spans="1:3">
+      <c r="A7740" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7740" s="0">
+        <v>61</v>
+      </c>
+      <c r="C7740" s="0"/>
+    </row>
+    <row r="7741" spans="1:3">
+      <c r="A7741" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7741" s="0">
+        <v>62</v>
+      </c>
+      <c r="C7741" s="0"/>
+    </row>
+    <row r="7742" spans="1:3">
+      <c r="A7742" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7742" s="0">
+        <v>63</v>
+      </c>
+      <c r="C7742" s="0"/>
+    </row>
+    <row r="7743" spans="1:3">
+      <c r="A7743" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7743" s="0">
+        <v>64</v>
+      </c>
+      <c r="C7743" s="0"/>
+    </row>
+    <row r="7744" spans="1:3">
+      <c r="A7744" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7744" s="0">
+        <v>65</v>
+      </c>
+      <c r="C7744" s="0"/>
+    </row>
+    <row r="7745" spans="1:3">
+      <c r="A7745" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7745" s="0">
+        <v>66</v>
+      </c>
+      <c r="C7745" s="0"/>
+    </row>
+    <row r="7746" spans="1:3">
+      <c r="A7746" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7746" s="0">
+        <v>67</v>
+      </c>
+      <c r="C7746" s="0"/>
+    </row>
+    <row r="7747" spans="1:3">
+      <c r="A7747" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7747" s="0">
+        <v>68</v>
+      </c>
+      <c r="C7747" s="0"/>
+    </row>
+    <row r="7748" spans="1:3">
+      <c r="A7748" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7748" s="0">
+        <v>69</v>
+      </c>
+      <c r="C7748" s="0"/>
+    </row>
+    <row r="7749" spans="1:3">
+      <c r="A7749" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7749" s="0">
+        <v>70</v>
+      </c>
+      <c r="C7749" s="0"/>
+    </row>
+    <row r="7750" spans="1:3">
+      <c r="A7750" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7750" s="0">
+        <v>71</v>
+      </c>
+      <c r="C7750" s="0"/>
+    </row>
+    <row r="7751" spans="1:3">
+      <c r="A7751" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7751" s="0">
+        <v>72</v>
+      </c>
+      <c r="C7751" s="0"/>
+    </row>
+    <row r="7752" spans="1:3">
+      <c r="A7752" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7752" s="0">
+        <v>73</v>
+      </c>
+      <c r="C7752" s="0"/>
+    </row>
+    <row r="7753" spans="1:3">
+      <c r="A7753" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7753" s="0">
+        <v>74</v>
+      </c>
+      <c r="C7753" s="0"/>
+    </row>
+    <row r="7754" spans="1:3">
+      <c r="A7754" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7754" s="0">
+        <v>75</v>
+      </c>
+      <c r="C7754" s="0"/>
+    </row>
+    <row r="7755" spans="1:3">
+      <c r="A7755" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7755" s="0">
+        <v>76</v>
+      </c>
+      <c r="C7755" s="0"/>
+    </row>
+    <row r="7756" spans="1:3">
+      <c r="A7756" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7756" s="0">
+        <v>77</v>
+      </c>
+      <c r="C7756" s="0"/>
+    </row>
+    <row r="7757" spans="1:3">
+      <c r="A7757" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7757" s="0">
+        <v>78</v>
+      </c>
+      <c r="C7757" s="0"/>
+    </row>
+    <row r="7758" spans="1:3">
+      <c r="A7758" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7758" s="0">
+        <v>79</v>
+      </c>
+      <c r="C7758" s="0"/>
+    </row>
+    <row r="7759" spans="1:3">
+      <c r="A7759" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7759" s="0">
+        <v>80</v>
+      </c>
+      <c r="C7759" s="0"/>
+    </row>
+    <row r="7760" spans="1:3">
+      <c r="A7760" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7760" s="0">
+        <v>81</v>
+      </c>
+      <c r="C7760" s="0"/>
+    </row>
+    <row r="7761" spans="1:3">
+      <c r="A7761" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7761" s="0">
+        <v>82</v>
+      </c>
+      <c r="C7761" s="0"/>
+    </row>
+    <row r="7762" spans="1:3">
+      <c r="A7762" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7762" s="0">
+        <v>83</v>
+      </c>
+      <c r="C7762" s="0"/>
+    </row>
+    <row r="7763" spans="1:3">
+      <c r="A7763" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7763" s="0">
+        <v>84</v>
+      </c>
+      <c r="C7763" s="0"/>
+    </row>
+    <row r="7764" spans="1:3">
+      <c r="A7764" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7764" s="0">
+        <v>85</v>
+      </c>
+      <c r="C7764" s="0"/>
+    </row>
+    <row r="7765" spans="1:3">
+      <c r="A7765" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7765" s="0">
+        <v>86</v>
+      </c>
+      <c r="C7765" s="0"/>
+    </row>
+    <row r="7766" spans="1:3">
+      <c r="A7766" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7766" s="0">
+        <v>87</v>
+      </c>
+      <c r="C7766" s="0"/>
+    </row>
+    <row r="7767" spans="1:3">
+      <c r="A7767" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7767" s="0">
+        <v>88</v>
+      </c>
+      <c r="C7767" s="0"/>
+    </row>
+    <row r="7768" spans="1:3">
+      <c r="A7768" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7768" s="0">
+        <v>89</v>
+      </c>
+      <c r="C7768" s="0"/>
+    </row>
+    <row r="7769" spans="1:3">
+      <c r="A7769" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7769" s="0">
+        <v>90</v>
+      </c>
+      <c r="C7769" s="0"/>
+    </row>
+    <row r="7770" spans="1:3">
+      <c r="A7770" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7770" s="0">
+        <v>91</v>
+      </c>
+      <c r="C7770" s="0"/>
+    </row>
+    <row r="7771" spans="1:3">
+      <c r="A7771" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7771" s="0">
+        <v>92</v>
+      </c>
+      <c r="C7771" s="0"/>
+    </row>
+    <row r="7772" spans="1:3">
+      <c r="A7772" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7772" s="0">
+        <v>93</v>
+      </c>
+      <c r="C7772" s="0"/>
+    </row>
+    <row r="7773" spans="1:3">
+      <c r="A7773" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7773" s="0">
+        <v>94</v>
+      </c>
+      <c r="C7773" s="0"/>
+    </row>
+    <row r="7774" spans="1:3">
+      <c r="A7774" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7774" s="0">
+        <v>95</v>
+      </c>
+      <c r="C7774" s="0"/>
+    </row>
+    <row r="7775" spans="1:3">
+      <c r="A7775" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7775" s="0">
+        <v>96</v>
+      </c>
+      <c r="C7775" s="0"/>
+    </row>
+    <row r="7776" spans="1:3">
+      <c r="A7776" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7776" s="0">
+        <v>97</v>
+      </c>
+      <c r="C7776" s="0"/>
+    </row>
+    <row r="7777" spans="1:3">
+      <c r="A7777" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7777" s="0">
+        <v>98</v>
+      </c>
+      <c r="C7777" s="0"/>
+    </row>
+    <row r="7778" spans="1:3">
+      <c r="A7778" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7778" s="0">
+        <v>99</v>
+      </c>
+      <c r="C7778" s="0"/>
+    </row>
+    <row r="7779" spans="1:3">
+      <c r="A7779" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7779" s="0">
+        <v>100</v>
+      </c>
+      <c r="C7779" s="0"/>
+    </row>
+    <row r="7780" spans="1:3">
+      <c r="A7780" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7780" s="0">
+        <v>101</v>
+      </c>
+      <c r="C7780" s="0"/>
+    </row>
+    <row r="7781" spans="1:3">
+      <c r="A7781" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7781" s="0">
+        <v>102</v>
+      </c>
+      <c r="C7781" s="0"/>
+    </row>
+    <row r="7782" spans="1:3">
+      <c r="A7782" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7782" s="0">
+        <v>103</v>
+      </c>
+      <c r="C7782" s="0"/>
+    </row>
+    <row r="7783" spans="1:3">
+      <c r="A7783" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7783" s="0">
+        <v>104</v>
+      </c>
+      <c r="C7783" s="0"/>
+    </row>
+    <row r="7784" spans="1:3">
+      <c r="A7784" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7784" s="0">
+        <v>105</v>
+      </c>
+      <c r="C7784" s="0"/>
+    </row>
+    <row r="7785" spans="1:3">
+      <c r="A7785" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7785" s="0">
+        <v>106</v>
+      </c>
+      <c r="C7785" s="0"/>
+    </row>
+    <row r="7786" spans="1:3">
+      <c r="A7786" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7786" s="0">
+        <v>107</v>
+      </c>
+      <c r="C7786" s="0"/>
+    </row>
+    <row r="7787" spans="1:3">
+      <c r="A7787" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7787" s="0">
+        <v>108</v>
+      </c>
+      <c r="C7787" s="0"/>
+    </row>
+    <row r="7788" spans="1:3">
+      <c r="A7788" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7788" s="0">
+        <v>109</v>
+      </c>
+      <c r="C7788" s="0"/>
+    </row>
+    <row r="7789" spans="1:3">
+      <c r="A7789" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7789" s="0">
+        <v>110</v>
+      </c>
+      <c r="C7789" s="0"/>
+    </row>
+    <row r="7790" spans="1:3">
+      <c r="A7790" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7790" s="0">
+        <v>111</v>
+      </c>
+      <c r="C7790" s="0"/>
+    </row>
+    <row r="7791" spans="1:3">
+      <c r="A7791" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7791" s="0">
+        <v>112</v>
+      </c>
+      <c r="C7791" s="0"/>
+    </row>
+    <row r="7792" spans="1:3">
+      <c r="A7792" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7792" s="0">
+        <v>113</v>
+      </c>
+      <c r="C7792" s="0"/>
+    </row>
+    <row r="7793" spans="1:3">
+      <c r="A7793" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7793" s="0">
+        <v>114</v>
+      </c>
+      <c r="C7793" s="0"/>
+    </row>
+    <row r="7794" spans="1:3">
+      <c r="A7794" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7794" s="0">
+        <v>115</v>
+      </c>
+      <c r="C7794" s="0"/>
+    </row>
+    <row r="7795" spans="1:3">
+      <c r="A7795" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7795" s="0">
+        <v>116</v>
+      </c>
+      <c r="C7795" s="0"/>
+    </row>
+    <row r="7796" spans="1:3">
+      <c r="A7796" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7796" s="0">
+        <v>117</v>
+      </c>
+      <c r="C7796" s="0"/>
+    </row>
+    <row r="7797" spans="1:3">
+      <c r="A7797" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7797" s="0">
+        <v>118</v>
+      </c>
+      <c r="C7797" s="0"/>
+    </row>
+    <row r="7798" spans="1:3">
+      <c r="A7798" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7798" s="0">
+        <v>119</v>
+      </c>
+      <c r="C7798" s="0"/>
+    </row>
+    <row r="7799" spans="1:3">
+      <c r="A7799" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7799" s="0">
+        <v>120</v>
+      </c>
+      <c r="C7799" s="0"/>
+    </row>
+    <row r="7800" spans="1:3">
+      <c r="A7800" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7800" s="0">
+        <v>121</v>
+      </c>
+      <c r="C7800" s="0"/>
+    </row>
+    <row r="7801" spans="1:3">
+      <c r="A7801" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7801" s="0">
+        <v>122</v>
+      </c>
+      <c r="C7801" s="0"/>
+    </row>
+    <row r="7802" spans="1:3">
+      <c r="A7802" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7802" s="0">
+        <v>123</v>
+      </c>
+      <c r="C7802" s="0"/>
+    </row>
+    <row r="7803" spans="1:3">
+      <c r="A7803" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7803" s="0">
+        <v>124</v>
+      </c>
+      <c r="C7803" s="0"/>
+    </row>
+    <row r="7804" spans="1:3">
+      <c r="A7804" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7804" s="0">
+        <v>125</v>
+      </c>
+      <c r="C7804" s="0"/>
+    </row>
+    <row r="7805" spans="1:3">
+      <c r="A7805" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7805" s="0">
+        <v>126</v>
+      </c>
+      <c r="C7805" s="0"/>
+    </row>
+    <row r="7806" spans="1:3">
+      <c r="A7806" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7806" s="0">
+        <v>127</v>
+      </c>
+      <c r="C7806" s="0"/>
+    </row>
+    <row r="7807" spans="1:3">
+      <c r="A7807" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7807" s="0">
+        <v>128</v>
+      </c>
+      <c r="C7807" s="0"/>
+    </row>
+    <row r="7808" spans="1:3">
+      <c r="A7808" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7808" s="0">
+        <v>129</v>
+      </c>
+      <c r="C7808" s="0"/>
+    </row>
+    <row r="7809" spans="1:3">
+      <c r="A7809" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7809" s="0">
+        <v>130</v>
+      </c>
+      <c r="C7809" s="0"/>
+    </row>
+    <row r="7810" spans="1:3">
+      <c r="A7810" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7810" s="0">
+        <v>131</v>
+      </c>
+      <c r="C7810" s="0"/>
+    </row>
+    <row r="7811" spans="1:3">
+      <c r="A7811" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7811" s="0">
+        <v>132</v>
+      </c>
+      <c r="C7811" s="0"/>
+    </row>
+    <row r="7812" spans="1:3">
+      <c r="A7812" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7812" s="0">
+        <v>133</v>
+      </c>
+      <c r="C7812" s="0"/>
+    </row>
+    <row r="7813" spans="1:3">
+      <c r="A7813" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7813" s="0">
+        <v>134</v>
+      </c>
+      <c r="C7813" s="0"/>
+    </row>
+    <row r="7814" spans="1:3">
+      <c r="A7814" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7814" s="0">
+        <v>135</v>
+      </c>
+      <c r="C7814" s="0"/>
+    </row>
+    <row r="7815" spans="1:3">
+      <c r="A7815" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7815" s="0">
+        <v>136</v>
+      </c>
+      <c r="C7815" s="0"/>
+    </row>
+    <row r="7816" spans="1:3">
+      <c r="A7816" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7816" s="0">
+        <v>137</v>
+      </c>
+      <c r="C7816" s="0"/>
+    </row>
+    <row r="7817" spans="1:3">
+      <c r="A7817" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7817" s="0">
+        <v>138</v>
+      </c>
+      <c r="C7817" s="0"/>
+    </row>
+    <row r="7818" spans="1:3">
+      <c r="A7818" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7818" s="0">
+        <v>139</v>
+      </c>
+      <c r="C7818" s="0"/>
+    </row>
+    <row r="7819" spans="1:3">
+      <c r="A7819" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7819" s="0">
+        <v>140</v>
+      </c>
+      <c r="C7819" s="0"/>
+    </row>
+    <row r="7820" spans="1:3">
+      <c r="A7820" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7820" s="0">
+        <v>141</v>
+      </c>
+      <c r="C7820" s="0"/>
+    </row>
+    <row r="7821" spans="1:3">
+      <c r="A7821" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7821" s="0">
+        <v>142</v>
+      </c>
+      <c r="C7821" s="0"/>
+    </row>
+    <row r="7822" spans="1:3">
+      <c r="A7822" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7822" s="0">
+        <v>143</v>
+      </c>
+      <c r="C7822" s="0"/>
+    </row>
+    <row r="7823" spans="1:3">
+      <c r="A7823" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7823" s="0">
+        <v>144</v>
+      </c>
+      <c r="C7823" s="0"/>
+    </row>
+    <row r="7824" spans="1:3">
+      <c r="A7824" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7824" s="0">
+        <v>145</v>
+      </c>
+      <c r="C7824" s="0"/>
+    </row>
+    <row r="7825" spans="1:3">
+      <c r="A7825" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7825" s="0">
+        <v>146</v>
+      </c>
+      <c r="C7825" s="0"/>
+    </row>
+    <row r="7826" spans="1:3">
+      <c r="A7826" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7826" s="0">
+        <v>147</v>
+      </c>
+      <c r="C7826" s="0"/>
+    </row>
+    <row r="7827" spans="1:3">
+      <c r="A7827" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7827" s="0">
+        <v>149</v>
+      </c>
+      <c r="C7827" s="0"/>
+    </row>
+    <row r="7828" spans="1:3">
+      <c r="A7828" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7828" s="0">
+        <v>150</v>
+      </c>
+      <c r="C7828" s="0"/>
+    </row>
+    <row r="7829" spans="1:3">
+      <c r="A7829" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7829" s="0">
+        <v>151</v>
+      </c>
+      <c r="C7829" s="0"/>
+    </row>
+    <row r="7830" spans="1:3">
+      <c r="A7830" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7830" s="0">
+        <v>152</v>
+      </c>
+      <c r="C7830" s="0"/>
+    </row>
+    <row r="7831" spans="1:3">
+      <c r="A7831" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7831" s="0">
+        <v>153</v>
+      </c>
+      <c r="C7831" s="0"/>
+    </row>
+    <row r="7832" spans="1:3">
+      <c r="A7832" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7832" s="0">
+        <v>154</v>
+      </c>
+      <c r="C7832" s="0"/>
+    </row>
+    <row r="7833" spans="1:3">
+      <c r="A7833" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7833" s="0">
+        <v>155</v>
+      </c>
+      <c r="C7833" s="0"/>
+    </row>
+    <row r="7834" spans="1:3">
+      <c r="A7834" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7834" s="0">
+        <v>156</v>
+      </c>
+      <c r="C7834" s="0"/>
+    </row>
+    <row r="7835" spans="1:3">
+      <c r="A7835" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7835" s="0">
+        <v>157</v>
+      </c>
+      <c r="C7835" s="0"/>
+    </row>
+    <row r="7836" spans="1:3">
+      <c r="A7836" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7836" s="0">
+        <v>158</v>
+      </c>
+      <c r="C7836" s="0"/>
+    </row>
+    <row r="7837" spans="1:3">
+      <c r="A7837" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7837" s="0">
+        <v>159</v>
+      </c>
+      <c r="C7837" s="0"/>
+    </row>
+    <row r="7838" spans="1:3">
+      <c r="A7838" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7838" s="0">
+        <v>160</v>
+      </c>
+      <c r="C7838" s="0"/>
+    </row>
+    <row r="7839" spans="1:3">
+      <c r="A7839" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7839" s="0">
+        <v>161</v>
+      </c>
+      <c r="C7839" s="0"/>
+    </row>
+    <row r="7840" spans="1:3">
+      <c r="A7840" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7840" s="0">
+        <v>162</v>
+      </c>
+      <c r="C7840" s="0"/>
+    </row>
+    <row r="7841" spans="1:3">
+      <c r="A7841" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7841" s="0">
+        <v>163</v>
+      </c>
+      <c r="C7841" s="0"/>
+    </row>
+    <row r="7842" spans="1:3">
+      <c r="A7842" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7842" s="0">
+        <v>164</v>
+      </c>
+      <c r="C7842" s="0"/>
+    </row>
+    <row r="7843" spans="1:3">
+      <c r="A7843" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7843" s="0">
+        <v>165</v>
+      </c>
+      <c r="C7843" s="0"/>
+    </row>
+    <row r="7844" spans="1:3">
+      <c r="A7844" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7844" s="0">
+        <v>166</v>
+      </c>
+      <c r="C7844" s="0"/>
+    </row>
+    <row r="7845" spans="1:3">
+      <c r="A7845" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7845" s="0">
+        <v>167</v>
+      </c>
+      <c r="C7845" s="0"/>
+    </row>
+    <row r="7846" spans="1:3">
+      <c r="A7846" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7846" s="0">
+        <v>168</v>
+      </c>
+      <c r="C7846" s="0"/>
+    </row>
+    <row r="7847" spans="1:3">
+      <c r="A7847" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7847" s="0">
+        <v>169</v>
+      </c>
+      <c r="C7847" s="0"/>
+    </row>
+    <row r="7848" spans="1:3">
+      <c r="A7848" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7848" s="0">
+        <v>170</v>
+      </c>
+      <c r="C7848" s="0"/>
+    </row>
+    <row r="7849" spans="1:3">
+      <c r="A7849" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7849" s="0">
+        <v>171</v>
+      </c>
+      <c r="C7849" s="0"/>
+    </row>
+    <row r="7850" spans="1:3">
+      <c r="A7850" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7850" s="0">
+        <v>172</v>
+      </c>
+      <c r="C7850" s="0"/>
+    </row>
+    <row r="7851" spans="1:3">
+      <c r="A7851" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7851" s="0">
+        <v>173</v>
+      </c>
+      <c r="C7851" s="0"/>
+    </row>
+    <row r="7852" spans="1:3">
+      <c r="A7852" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7852" s="0">
+        <v>174</v>
+      </c>
+      <c r="C7852" s="0"/>
+    </row>
+    <row r="7853" spans="1:3">
+      <c r="A7853" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7853" s="0">
+        <v>175</v>
+      </c>
+      <c r="C7853" s="0"/>
+    </row>
+    <row r="7854" spans="1:3">
+      <c r="A7854" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7854" s="0">
+        <v>176</v>
+      </c>
+      <c r="C7854" s="0"/>
+    </row>
+    <row r="7855" spans="1:3">
+      <c r="A7855" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7855" s="0">
+        <v>177</v>
+      </c>
+      <c r="C7855" s="0"/>
+    </row>
+    <row r="7856" spans="1:3">
+      <c r="A7856" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7856" s="0">
+        <v>178</v>
+      </c>
+      <c r="C7856" s="0"/>
+    </row>
+    <row r="7857" spans="1:3">
+      <c r="A7857" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7857" s="0">
+        <v>179</v>
+      </c>
+      <c r="C7857" s="0"/>
+    </row>
+    <row r="7858" spans="1:3">
+      <c r="A7858" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7858" s="0">
+        <v>180</v>
+      </c>
+      <c r="C7858" s="0"/>
+    </row>
+    <row r="7859" spans="1:3">
+      <c r="A7859" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7859" s="0">
+        <v>181</v>
+      </c>
+      <c r="C7859" s="0"/>
+    </row>
+    <row r="7860" spans="1:3">
+      <c r="A7860" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7860" s="0">
+        <v>182</v>
+      </c>
+      <c r="C7860" s="0"/>
+    </row>
+    <row r="7861" spans="1:3">
+      <c r="A7861" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7861" s="0">
+        <v>183</v>
+      </c>
+      <c r="C7861" s="0"/>
+    </row>
+    <row r="7862" spans="1:3">
+      <c r="A7862" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7862" s="0">
+        <v>184</v>
+      </c>
+      <c r="C7862" s="0"/>
+    </row>
+    <row r="7863" spans="1:3">
+      <c r="A7863" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7863" s="0">
+        <v>185</v>
+      </c>
+      <c r="C7863" s="0"/>
+    </row>
+    <row r="7864" spans="1:3">
+      <c r="A7864" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7864" s="0">
+        <v>186</v>
+      </c>
+      <c r="C7864" s="0"/>
+    </row>
+    <row r="7865" spans="1:3">
+      <c r="A7865" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7865" s="0">
+        <v>187</v>
+      </c>
+      <c r="C7865" s="0"/>
+    </row>
+    <row r="7866" spans="1:3">
+      <c r="A7866" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7866" s="0">
+        <v>188</v>
+      </c>
+      <c r="C7866" s="0"/>
+    </row>
+    <row r="7867" spans="1:3">
+      <c r="A7867" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7867" s="0">
+        <v>189</v>
+      </c>
+      <c r="C7867" s="0"/>
+    </row>
+    <row r="7868" spans="1:3">
+      <c r="A7868" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7868" s="0">
+        <v>190</v>
+      </c>
+      <c r="C7868" s="0"/>
+    </row>
+    <row r="7869" spans="1:3">
+      <c r="A7869" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7869" s="0">
+        <v>191</v>
+      </c>
+      <c r="C7869" s="0"/>
+    </row>
+    <row r="7870" spans="1:3">
+      <c r="A7870" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7870" s="0">
+        <v>192</v>
+      </c>
+      <c r="C7870" s="0"/>
+    </row>
+    <row r="7871" spans="1:3">
+      <c r="A7871" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7871" s="0">
+        <v>193</v>
+      </c>
+      <c r="C7871" s="0"/>
+    </row>
+    <row r="7872" spans="1:3">
+      <c r="A7872" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7872" s="0">
+        <v>194</v>
+      </c>
+      <c r="C7872" s="0"/>
+    </row>
+    <row r="7873" spans="1:3">
+      <c r="A7873" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7873" s="0">
+        <v>195</v>
+      </c>
+      <c r="C7873" s="0"/>
+    </row>
+    <row r="7874" spans="1:3">
+      <c r="A7874" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7874" s="0">
+        <v>196</v>
+      </c>
+      <c r="C7874" s="0"/>
+    </row>
+    <row r="7875" spans="1:3">
+      <c r="A7875" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7875" s="0">
+        <v>197</v>
+      </c>
+      <c r="C7875" s="0"/>
+    </row>
+    <row r="7876" spans="1:3">
+      <c r="A7876" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7876" s="0">
+        <v>198</v>
+      </c>
+      <c r="C7876" s="0"/>
+    </row>
+    <row r="7877" spans="1:3">
+      <c r="A7877" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7877" s="0">
+        <v>199</v>
+      </c>
+      <c r="C7877" s="0"/>
+    </row>
+    <row r="7878" spans="1:3">
+      <c r="A7878" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7878" s="0">
+        <v>200</v>
+      </c>
+      <c r="C7878" s="0"/>
+    </row>
+    <row r="7879" spans="1:3">
+      <c r="A7879" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7879" s="0">
+        <v>201</v>
+      </c>
+      <c r="C7879" s="0"/>
+    </row>
+    <row r="7880" spans="1:3">
+      <c r="A7880" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7880" s="0">
+        <v>202</v>
+      </c>
+      <c r="C7880" s="0"/>
+    </row>
+    <row r="7881" spans="1:3">
+      <c r="A7881" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7881" s="0">
+        <v>203</v>
+      </c>
+      <c r="C7881" s="0"/>
+    </row>
+    <row r="7882" spans="1:3">
+      <c r="A7882" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7882" s="0">
+        <v>204</v>
+      </c>
+      <c r="C7882" s="0"/>
+    </row>
+    <row r="7883" spans="1:3">
+      <c r="A7883" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7883" s="0">
+        <v>205</v>
+      </c>
+      <c r="C7883" s="0"/>
+    </row>
+    <row r="7884" spans="1:3">
+      <c r="A7884" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7884" s="0">
+        <v>206</v>
+      </c>
+      <c r="C7884" s="0"/>
+    </row>
+    <row r="7885" spans="1:3">
+      <c r="A7885" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7885" s="0">
+        <v>207</v>
+      </c>
+      <c r="C7885" s="0"/>
+    </row>
+    <row r="7886" spans="1:3">
+      <c r="A7886" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7886" s="0">
+        <v>208</v>
+      </c>
+      <c r="C7886" s="0"/>
+    </row>
+    <row r="7887" spans="1:3">
+      <c r="A7887" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7887" s="0">
+        <v>209</v>
+      </c>
+      <c r="C7887" s="0"/>
+    </row>
+    <row r="7888" spans="1:3">
+      <c r="A7888" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7888" s="0">
+        <v>210</v>
+      </c>
+      <c r="C7888" s="0"/>
+    </row>
+    <row r="7889" spans="1:3">
+      <c r="A7889" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7889" s="0">
+        <v>211</v>
+      </c>
+      <c r="C7889" s="0"/>
+    </row>
+    <row r="7890" spans="1:3">
+      <c r="A7890" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7890" s="0">
+        <v>212</v>
+      </c>
+      <c r="C7890" s="0"/>
+    </row>
+    <row r="7891" spans="1:3">
+      <c r="A7891" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7891" s="0">
+        <v>213</v>
+      </c>
+      <c r="C7891" s="0"/>
+    </row>
+    <row r="7892" spans="1:3">
+      <c r="A7892" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7892" s="0">
+        <v>214</v>
+      </c>
+      <c r="C7892" s="0"/>
+    </row>
+    <row r="7893" spans="1:3">
+      <c r="A7893" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7893" s="0">
+        <v>215</v>
+      </c>
+      <c r="C7893" s="0"/>
+    </row>
+    <row r="7894" spans="1:3">
+      <c r="A7894" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7894" s="0">
+        <v>216</v>
+      </c>
+      <c r="C7894" s="0"/>
+    </row>
+    <row r="7895" spans="1:3">
+      <c r="A7895" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7895" s="0">
+        <v>217</v>
+      </c>
+      <c r="C7895" s="0"/>
+    </row>
+    <row r="7896" spans="1:3">
+      <c r="A7896" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7896" s="0">
+        <v>218</v>
+      </c>
+      <c r="C7896" s="0"/>
+    </row>
+    <row r="7897" spans="1:3">
+      <c r="A7897" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7897" s="0">
+        <v>219</v>
+      </c>
+      <c r="C7897" s="0"/>
+    </row>
+    <row r="7898" spans="1:3">
+      <c r="A7898" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7898" s="0">
+        <v>220</v>
+      </c>
+      <c r="C7898" s="0"/>
+    </row>
+    <row r="7899" spans="1:3">
+      <c r="A7899" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7899" s="0">
+        <v>221</v>
+      </c>
+      <c r="C7899" s="0"/>
+    </row>
+    <row r="7900" spans="1:3">
+      <c r="A7900" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7900" s="0">
+        <v>222</v>
+      </c>
+      <c r="C7900" s="0"/>
+    </row>
+    <row r="7901" spans="1:3">
+      <c r="A7901" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7901" s="0">
+        <v>223</v>
+      </c>
+      <c r="C7901" s="0"/>
+    </row>
+    <row r="7902" spans="1:3">
+      <c r="A7902" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7902" s="0">
+        <v>224</v>
+      </c>
+      <c r="C7902" s="0"/>
+    </row>
+    <row r="7903" spans="1:3">
+      <c r="A7903" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7903" s="0">
+        <v>225</v>
+      </c>
+      <c r="C7903" s="0"/>
+    </row>
+    <row r="7904" spans="1:3">
+      <c r="A7904" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7904" s="0">
+        <v>226</v>
+      </c>
+      <c r="C7904" s="0"/>
+    </row>
+    <row r="7905" spans="1:3">
+      <c r="A7905" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7905" s="0">
+        <v>227</v>
+      </c>
+      <c r="C7905" s="0"/>
+    </row>
+    <row r="7906" spans="1:3">
+      <c r="A7906" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7906" s="0">
+        <v>228</v>
+      </c>
+      <c r="C7906" s="0"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
